--- a/Timmy_courses_updated.xlsx
+++ b/Timmy_courses_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E032B66-6BB5-40F2-8F97-328A9F373578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40BB7EF-1C54-4029-9395-BC86E949CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="924" windowWidth="20592" windowHeight="11316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="243">
   <si>
     <t>Task name</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Day 39 Shift 11</t>
   </si>
   <si>
-    <t>Day 57 Shift 7–9</t>
-  </si>
-  <si>
     <t>8 (prep)</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>Bonus (no weight)</t>
   </si>
   <si>
-    <t>Day 50 Shift 8</t>
-  </si>
-  <si>
     <t>Fixed slot 13:20–16:20</t>
   </si>
   <si>
@@ -329,63 +323,33 @@
     <t>Class Participation W1</t>
   </si>
   <si>
-    <t>Day 45 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W2</t>
   </si>
   <si>
-    <t>Day 52 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W3</t>
   </si>
   <si>
-    <t>Day 59 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W4</t>
   </si>
   <si>
-    <t>Day 66 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W5</t>
   </si>
   <si>
-    <t>Day 73 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W6</t>
   </si>
   <si>
-    <t>Day 80 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W7</t>
   </si>
   <si>
-    <t>Day 87 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W8</t>
   </si>
   <si>
-    <t>Day 94 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W9</t>
   </si>
   <si>
-    <t>Day 101 Shift 2–4</t>
-  </si>
-  <si>
     <t>Class Participation W10</t>
   </si>
   <si>
-    <t>Day 108 Shift 2–4</t>
-  </si>
-  <si>
     <t>Post‑lesson HW W1</t>
   </si>
   <si>
@@ -506,9 +470,6 @@
     <t>Reading Practice W10</t>
   </si>
   <si>
-    <t>Day 50 Shifts 2–4</t>
-  </si>
-  <si>
     <t>4 (prep)</t>
   </si>
   <si>
@@ -527,9 +488,6 @@
     <t>Case Study Presentation</t>
   </si>
   <si>
-    <t>Day 15–92 Shift 7</t>
-  </si>
-  <si>
     <t>6–10 (per group)</t>
   </si>
   <si>
@@ -566,12 +524,6 @@
     <t>Day 52 Shift 7</t>
   </si>
   <si>
-    <t>Participation W4</t>
-  </si>
-  <si>
-    <t>Day 57 Shift 7</t>
-  </si>
-  <si>
     <t>Participation W5</t>
   </si>
   <si>
@@ -707,12 +659,6 @@
     <t>Day 59 Shift 10</t>
   </si>
   <si>
-    <t>TA Session W4</t>
-  </si>
-  <si>
-    <t>Day 66 Shift 10</t>
-  </si>
-  <si>
     <t>TA Session W5</t>
   </si>
   <si>
@@ -747,10 +693,6 @@
   </si>
   <si>
     <t>Day 108 Shift 10</t>
-  </si>
-  <si>
-    <t>Day 50 Shift 2–4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Day 44 Shift 2–4</t>
@@ -782,6 +724,727 @@
   </si>
   <si>
     <t>Minimum grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>73</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day 15 Shift 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day 57 Shift 7–9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day 51 Shift 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50 Shifts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2–4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day 48 Shift 2–4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +1452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,6 +1466,26 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1129,14 +1812,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" customWidth="1"/>
@@ -1171,13 +1855,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="K1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1395,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -1473,7 +2157,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1496,7 +2180,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1519,7 +2203,7 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1542,7 +2226,7 @@
         <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1565,7 +2249,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1746,18 +2430,18 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -1768,7 +2452,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1791,7 +2475,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1814,7 +2498,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1837,7 +2521,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1878,7 +2562,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
         <v>41</v>
@@ -1904,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -1930,18 +2614,18 @@
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -1952,7 +2636,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1973,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1999,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2025,7 +2709,7 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2051,12 +2735,12 @@
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -2077,21 +2761,21 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
         <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>10</v>
-      </c>
-      <c r="D44" t="s">
-        <v>62</v>
       </c>
       <c r="E44">
         <v>64</v>
@@ -2100,24 +2784,24 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
         <v>63</v>
-      </c>
-      <c r="H44" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>65</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
       </c>
       <c r="E45">
         <v>115</v>
@@ -2126,18 +2810,18 @@
         <v>11</v>
       </c>
       <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s">
         <v>63</v>
-      </c>
-      <c r="H45" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
         <v>67</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -2155,15 +2839,15 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -2181,15 +2865,15 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2207,33 +2891,33 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" t="s">
-        <v>73</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
         <v>75</v>
       </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>76</v>
-      </c>
-      <c r="H49" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2253,13 +2937,13 @@
         <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="G50" t="s">
         <v>21</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2279,7 +2963,7 @@
         <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -2290,7 +2974,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -2316,13 +3000,13 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
         <v>82</v>
-      </c>
-      <c r="G54" t="s">
-        <v>83</v>
-      </c>
-      <c r="H54" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2342,15 +3026,15 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -2365,15 +3049,15 @@
         <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -2388,15 +3072,15 @@
         <v>54</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -2411,15 +3095,15 @@
         <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -2434,10 +3118,10 @@
         <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2457,13 +3141,13 @@
         <v>56</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
         <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2489,12 +3173,12 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -2505,7 +3189,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2520,7 +3204,7 @@
         <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="G64">
         <v>0.5</v>
@@ -2528,7 +3212,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2543,7 +3227,7 @@
         <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="G65">
         <v>0.5</v>
@@ -2551,7 +3235,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2566,7 +3250,7 @@
         <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="G66">
         <v>0.5</v>
@@ -2574,7 +3258,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2589,7 +3273,7 @@
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="G67">
         <v>0.5</v>
@@ -2597,7 +3281,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2612,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="G68">
         <v>0.5</v>
@@ -2620,7 +3304,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2635,7 +3319,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="G69">
         <v>0.5</v>
@@ -2643,7 +3327,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2658,7 +3342,7 @@
         <v>87</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="G70">
         <v>0.5</v>
@@ -2666,7 +3350,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2681,7 +3365,7 @@
         <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="G71">
         <v>0.5</v>
@@ -2689,7 +3373,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2704,7 +3388,7 @@
         <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="G72">
         <v>0.5</v>
@@ -2712,7 +3396,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2727,7 +3411,7 @@
         <v>108</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="G73">
         <v>0.5</v>
@@ -2735,7 +3419,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2758,7 +3442,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2781,7 +3465,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2804,7 +3488,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2827,7 +3511,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -2850,7 +3534,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2873,7 +3557,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -2896,7 +3580,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2919,7 +3603,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -2942,7 +3626,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -2965,7 +3649,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -2980,7 +3664,7 @@
         <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G84">
         <v>0.5</v>
@@ -2988,7 +3672,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -3003,7 +3687,7 @@
         <v>52</v>
       </c>
       <c r="F85" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G85">
         <v>0.5</v>
@@ -3011,7 +3695,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -3026,7 +3710,7 @@
         <v>59</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G86">
         <v>0.5</v>
@@ -3034,7 +3718,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -3049,7 +3733,7 @@
         <v>66</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G87">
         <v>0.5</v>
@@ -3057,7 +3741,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -3072,7 +3756,7 @@
         <v>73</v>
       </c>
       <c r="F88" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G88">
         <v>0.5</v>
@@ -3080,7 +3764,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -3095,7 +3779,7 @@
         <v>80</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G89">
         <v>0.5</v>
@@ -3103,7 +3787,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -3118,7 +3802,7 @@
         <v>87</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G90">
         <v>0.5</v>
@@ -3126,7 +3810,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
@@ -3141,7 +3825,7 @@
         <v>94</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G91">
         <v>0.5</v>
@@ -3149,7 +3833,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
@@ -3164,7 +3848,7 @@
         <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G92">
         <v>0.5</v>
@@ -3172,7 +3856,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -3187,7 +3871,7 @@
         <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G93">
         <v>0.5</v>
@@ -3195,7 +3879,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3218,7 +3902,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3241,7 +3925,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3264,7 +3948,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3287,7 +3971,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3310,7 +3994,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3333,7 +4017,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3356,7 +4040,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3379,7 +4063,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3402,7 +4086,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3440,13 +4124,13 @@
         <v>50</v>
       </c>
       <c r="F104" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H104" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -3466,18 +4150,18 @@
         <v>113</v>
       </c>
       <c r="F105" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G105" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H105" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -3488,7 +4172,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3503,13 +4187,13 @@
         <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="G108" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H108" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -3529,13 +4213,13 @@
         <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G109" t="s">
         <v>21</v>
       </c>
       <c r="H109" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -3555,18 +4239,18 @@
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G110" t="s">
         <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3581,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="G111">
         <v>0.5</v>
@@ -3589,7 +4273,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -3604,7 +4288,7 @@
         <v>47</v>
       </c>
       <c r="F112" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G112">
         <v>0.5</v>
@@ -3612,13 +4296,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <v>52</v>
@@ -3627,15 +4311,15 @@
         <v>52</v>
       </c>
       <c r="F113" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -3644,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E114">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G114">
         <v>0.5</v>
@@ -3658,7 +4342,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -3667,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E115">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G115">
         <v>0.5</v>
@@ -3681,7 +4365,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3690,13 +4374,13 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E116">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F116" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G116">
         <v>0.5</v>
@@ -3704,7 +4388,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -3713,13 +4397,13 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E117">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F117" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G117">
         <v>0.5</v>
@@ -3727,7 +4411,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -3736,13 +4420,13 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E118">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F118" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G118">
         <v>0.5</v>
@@ -3750,7 +4434,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -3759,13 +4443,13 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E119">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F119" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G119">
         <v>0.5</v>
@@ -3773,7 +4457,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -3782,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E120">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F120" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G120">
         <v>0.5</v>
@@ -3796,7 +4480,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -3805,13 +4489,13 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E121">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F121" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G121">
         <v>0.5</v>
@@ -3819,7 +4503,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -3828,13 +4512,13 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E122">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F122" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G122">
         <v>0.5</v>
@@ -3842,7 +4526,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -3851,13 +4535,13 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E123">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F123" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G123">
         <v>0.5</v>
@@ -3865,7 +4549,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -3874,107 +4558,110 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E124">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F124" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G124">
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>199</v>
-      </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>112</v>
-      </c>
-      <c r="E125">
-        <v>112</v>
-      </c>
-      <c r="F125" t="s">
-        <v>200</v>
-      </c>
-      <c r="G125">
-        <v>0.5</v>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>185</v>
+      </c>
+      <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
+        <v>0.8</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>201</v>
-      </c>
-      <c r="I127">
-        <v>3</v>
-      </c>
-      <c r="J127">
-        <v>0.8</v>
+        <v>186</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>15</v>
+      </c>
+      <c r="E127">
+        <v>22</v>
+      </c>
+      <c r="F127" t="s">
+        <v>187</v>
+      </c>
+      <c r="G127" t="s">
+        <v>188</v>
+      </c>
+      <c r="H127" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="E128">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F128" t="s">
-        <v>203</v>
-      </c>
-      <c r="G128" t="s">
-        <v>204</v>
+        <v>191</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C129">
-        <v>6</v>
-      </c>
-      <c r="D129">
-        <v>99</v>
-      </c>
-      <c r="E129">
-        <v>103</v>
+        <v>27</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>207</v>
-      </c>
-      <c r="G129">
-        <v>5</v>
+        <v>194</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
       </c>
       <c r="H129" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
@@ -3989,24 +4676,24 @@
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G130" t="s">
         <v>21</v>
       </c>
       <c r="H130" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
       <c r="C131">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
@@ -4015,44 +4702,41 @@
         <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G131" t="s">
         <v>21</v>
       </c>
       <c r="H131" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C132">
-        <v>26</v>
-      </c>
-      <c r="D132" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>45</v>
+      </c>
+      <c r="E132">
+        <v>45</v>
       </c>
       <c r="F132" t="s">
-        <v>216</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s">
-        <v>217</v>
+        <v>203</v>
+      </c>
+      <c r="G132">
+        <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4061,13 +4745,13 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E133">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F133" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G133">
         <v>0.5</v>
@@ -4075,7 +4759,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4084,21 +4768,21 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E134">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F134" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G134">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4107,13 +4791,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E135">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F135" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G135">
         <v>0.5</v>
@@ -4121,7 +4805,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4130,13 +4814,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E136">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F136" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G136">
         <v>0.5</v>
@@ -4144,7 +4828,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4153,13 +4837,13 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E137">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F137" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G137">
         <v>0.5</v>
@@ -4167,7 +4851,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4176,13 +4860,13 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E138">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F138" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G138">
         <v>0.5</v>
@@ -4190,7 +4874,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4199,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="E139">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F139" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G139">
         <v>0.5</v>
@@ -4213,7 +4897,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -4222,61 +4906,15 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E140">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F140" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="G140">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>234</v>
-      </c>
-      <c r="B141" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>101</v>
-      </c>
-      <c r="E141">
-        <v>101</v>
-      </c>
-      <c r="F141" t="s">
-        <v>235</v>
-      </c>
-      <c r="G141">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>236</v>
-      </c>
-      <c r="B142" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>108</v>
-      </c>
-      <c r="E142">
-        <v>108</v>
-      </c>
-      <c r="F142" t="s">
-        <v>237</v>
-      </c>
-      <c r="G142">
         <v>0.5</v>
       </c>
     </row>
